--- a/results/comparaison/GM/retardance/median_normalized.xlsx
+++ b/results/comparaison/GM/retardance/median_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.4497027858872102</v>
-      </c>
       <c r="C3">
-        <v>0.4635744659042486</v>
+        <v>1.033441190849662</v>
       </c>
       <c r="D3">
-        <v>0.528983171019666</v>
+        <v>0.9858322345825852</v>
       </c>
       <c r="E3">
-        <v>0.4026528857632409</v>
-      </c>
-      <c r="F3">
-        <v>0.5670897805570139</v>
-      </c>
-      <c r="G3">
-        <v>0.4608962561516218</v>
+        <v>0.4289397587839612</v>
       </c>
       <c r="H3">
-        <v>0.2801429507211547</v>
+        <v>2.555011118348202</v>
       </c>
       <c r="I3">
-        <v>1.398522012346104</v>
+        <v>0.2685824135910474</v>
+      </c>
+      <c r="J3">
+        <v>0.4121478834841097</v>
+      </c>
+      <c r="K3">
+        <v>0.5076287721427749</v>
       </c>
       <c r="L3">
-        <v>0.6315012047735685</v>
+        <v>0.7558730588216618</v>
+      </c>
+      <c r="M3">
+        <v>0.3946877053758666</v>
       </c>
       <c r="N3">
-        <v>0.5784012047857989</v>
+        <v>0.2373165530533119</v>
+      </c>
+      <c r="O3">
+        <v>1.404777505044065</v>
       </c>
       <c r="P3">
-        <v>0.4558175896725148</v>
-      </c>
-      <c r="R3">
-        <v>0.5514844172565111</v>
-      </c>
-      <c r="S3">
-        <v>0.6852301783916273</v>
+        <v>0.7338529689355784</v>
+      </c>
+      <c r="Q3">
+        <v>0.5403355647480003</v>
       </c>
       <c r="T3">
-        <v>0.7404910540717358</v>
+        <v>0.938669961461605</v>
+      </c>
+      <c r="U3">
+        <v>0.8634321610833305</v>
       </c>
       <c r="V3">
-        <v>1.053716992557365</v>
-      </c>
-      <c r="X3">
-        <v>2.24468139872254</v>
+        <v>0.3438380428806008</v>
+      </c>
+      <c r="W3">
+        <v>0.5317853918331181</v>
       </c>
       <c r="Y3">
-        <v>0.5753207082832285</v>
+        <v>1.011821975570489</v>
       </c>
       <c r="Z3">
-        <v>0.3152306622427828</v>
-      </c>
-      <c r="AB3">
-        <v>0.8137794335912211</v>
+        <v>0.6861107490460381</v>
+      </c>
+      <c r="AA3">
+        <v>0.6759264971869592</v>
       </c>
       <c r="AC3">
-        <v>0.4932722573453017</v>
+        <v>1.153716908325523</v>
       </c>
       <c r="AD3">
-        <v>0.4217829918727813</v>
-      </c>
-      <c r="AE3">
-        <v>1.285350016284193</v>
+        <v>0.8789254443408183</v>
       </c>
       <c r="AF3">
-        <v>0.7500076244254856</v>
+        <v>1.697484055149412</v>
       </c>
       <c r="AG3">
-        <v>0.4659463168360918</v>
-      </c>
-      <c r="AH3">
-        <v>0.3751308716814664</v>
+        <v>1.051771502832996</v>
       </c>
       <c r="AI3">
-        <v>0.8665357579336415</v>
+        <v>0.728857235687794</v>
       </c>
       <c r="AJ3">
-        <v>0.8813262695148045</v>
+        <v>0.4708279745001608</v>
+      </c>
+      <c r="AK3">
+        <v>0.8312263671076775</v>
       </c>
       <c r="AL3">
-        <v>0.2354571907446353</v>
+        <v>1.928709128941981</v>
+      </c>
+      <c r="AM3">
+        <v>0.3293485558655543</v>
       </c>
       <c r="AN3">
-        <v>0.8997723879820491</v>
+        <v>0.6274314793991946</v>
       </c>
       <c r="AO3">
-        <v>0.6106263975837413</v>
+        <v>0.9143435917536344</v>
       </c>
       <c r="AP3">
-        <v>1.571179202423509</v>
+        <v>0.679643899329836</v>
       </c>
       <c r="AQ3">
-        <v>2.532809433324398</v>
+        <v>0.46292935070419</v>
       </c>
       <c r="AR3">
-        <v>0.8987227012071382</v>
+        <v>0.1884135883562323</v>
       </c>
       <c r="AT3">
-        <v>0.6159139748104738</v>
+        <v>1.121037316460375</v>
+      </c>
+      <c r="AU3">
+        <v>0.6568678338048127</v>
       </c>
       <c r="AV3">
-        <v>1.478874725385676</v>
+        <v>0.356296744112476</v>
       </c>
       <c r="AW3">
-        <v>1.345842872970612</v>
+        <v>1.246314941843644</v>
       </c>
       <c r="AX3">
-        <v>0.5014244064101012</v>
+        <v>0.1919340835271525</v>
       </c>
       <c r="AY3">
-        <v>0.6427016629782298</v>
-      </c>
-      <c r="AZ3">
-        <v>1.033331112667266</v>
+        <v>2.215317853138929</v>
       </c>
       <c r="BA3">
-        <v>1.185976781700372</v>
+        <v>0.9953807887544701</v>
       </c>
       <c r="BB3">
-        <v>0.9076240860562631</v>
+        <v>1.283270455431499</v>
       </c>
       <c r="BC3">
-        <v>0.7754141694241694</v>
+        <v>1.104110873672336</v>
       </c>
       <c r="BD3">
-        <v>0.9502255055813343</v>
+        <v>0.3364327836480991</v>
       </c>
       <c r="BE3">
-        <v>0.5836514378297664</v>
+        <v>0.6804684284812854</v>
       </c>
       <c r="BF3">
-        <v>0.7470570503136228</v>
-      </c>
-      <c r="BG3">
-        <v>0.8219052116683893</v>
+        <v>0.3206497025727096</v>
       </c>
       <c r="BH3">
-        <v>0.4008595730484756</v>
+        <v>1.074168543117722</v>
       </c>
       <c r="BI3">
-        <v>0.3776317426994307</v>
+        <v>0.9729149180363217</v>
       </c>
       <c r="BJ3">
-        <v>0.6448653349501182</v>
+        <v>0.4452678510977467</v>
+      </c>
+      <c r="BK3">
+        <v>0.7377908123555569</v>
       </c>
       <c r="BL3">
-        <v>1.126374456715073</v>
-      </c>
-      <c r="BM3">
-        <v>0.3689222236583851</v>
+        <v>0.3311564422319784</v>
+      </c>
+      <c r="BN3">
+        <v>0.9162476227727038</v>
+      </c>
+      <c r="BO3">
+        <v>0.734887109661767</v>
+      </c>
+      <c r="BP3">
+        <v>0.5987126485477183</v>
       </c>
       <c r="BQ3">
-        <v>0.7872311302647665</v>
+        <v>0.4493020054777126</v>
       </c>
       <c r="BR3">
-        <v>0.4862114733728589</v>
+        <v>1.131991080245805</v>
       </c>
       <c r="BS3">
-        <v>0.7438608105757434</v>
+        <v>0.4048704707898003</v>
       </c>
       <c r="BT3">
-        <v>0.1974727751465883</v>
+        <v>1.221966133654212</v>
       </c>
       <c r="BU3">
-        <v>0.4616076615484266</v>
+        <v>0.4354772504012366</v>
       </c>
       <c r="BV3">
-        <v>0.201508922218652</v>
+        <v>0.7727878269645273</v>
       </c>
       <c r="BW3">
-        <v>0.4510627762781779</v>
+        <v>0.9906467879109859</v>
       </c>
       <c r="BX3">
-        <v>0.596638596210862</v>
-      </c>
-      <c r="CA3">
-        <v>0.5464889167447252</v>
+        <v>0.2692658925887303</v>
+      </c>
+      <c r="BY3">
+        <v>0.526697137383943</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6621077208774221</v>
       </c>
       <c r="CB3">
-        <v>0.6864581177482879</v>
+        <v>0.4509614587649218</v>
+      </c>
+      <c r="CC3">
+        <v>0.2632585538388286</v>
       </c>
       <c r="CD3">
-        <v>0.7852570379498801</v>
+        <v>0.3129475317812789</v>
       </c>
       <c r="CE3">
-        <v>0.4472152719699806</v>
+        <v>0.6384058158547883</v>
       </c>
       <c r="CF3">
-        <v>0.524807340489363</v>
+        <v>0.3257373579348528</v>
+      </c>
+      <c r="CG3">
+        <v>0.4820842588801468</v>
       </c>
       <c r="CH3">
-        <v>0.3229181878187335</v>
+        <v>0.688843634626611</v>
+      </c>
+      <c r="CI3">
+        <v>0.3870884335162518</v>
       </c>
       <c r="CK3">
-        <v>0.4640980005497903</v>
+        <v>0.9494954159757304</v>
+      </c>
+      <c r="CL3">
+        <v>0.9004303241022159</v>
       </c>
       <c r="CM3">
-        <v>1.039334373104352</v>
+        <v>0.9462514161067491</v>
       </c>
       <c r="CN3">
-        <v>0.8041949643101415</v>
+        <v>0.441906055934816</v>
+      </c>
+      <c r="CO3">
+        <v>0.6730892391673424</v>
       </c>
       <c r="CP3">
-        <v>0.9761009122670987</v>
+        <v>0.6615168011650493</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5862063286562194</v>
+      </c>
+      <c r="CR3">
+        <v>0.5947651585978464</v>
       </c>
       <c r="CS3">
-        <v>0.7340335914176415</v>
+        <v>0.3512081105969299</v>
+      </c>
+      <c r="CT3">
+        <v>0.3536685865474122</v>
+      </c>
+      <c r="CU3">
+        <v>0.3878982478671594</v>
+      </c>
+      <c r="CV3">
+        <v>0.8051534612879491</v>
+      </c>
+      <c r="CW3">
+        <v>0.4992155185417762</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.2975811578932456</v>
+      </c>
       <c r="C4">
-        <v>0.4647005336565305</v>
+        <v>0.909531965918738</v>
       </c>
       <c r="D4">
-        <v>0.4848058616469115</v>
+        <v>1.11773194333078</v>
       </c>
       <c r="E4">
-        <v>0.4303115276577036</v>
-      </c>
-      <c r="F4">
-        <v>0.6699952408988353</v>
+        <v>0.4528611704650798</v>
       </c>
       <c r="H4">
-        <v>0.3066936185989098</v>
+        <v>2.705768393156221</v>
       </c>
       <c r="I4">
-        <v>1.373867017019337</v>
+        <v>0.2768537474719861</v>
+      </c>
+      <c r="J4">
+        <v>0.3783686131116851</v>
+      </c>
+      <c r="K4">
+        <v>0.6056183091726197</v>
       </c>
       <c r="L4">
-        <v>0.8072951660380038</v>
+        <v>0.6475608033912319</v>
+      </c>
+      <c r="M4">
+        <v>0.4234176171483895</v>
       </c>
       <c r="N4">
-        <v>0.6041226832266366</v>
+        <v>0.2586481836642703</v>
+      </c>
+      <c r="O4">
+        <v>1.378020459953906</v>
+      </c>
+      <c r="P4">
+        <v>0.6828566835595304</v>
       </c>
       <c r="Q4">
-        <v>0.6847686219939063</v>
-      </c>
-      <c r="R4">
-        <v>0.6789168945717764</v>
-      </c>
-      <c r="S4">
-        <v>0.778769408177382</v>
+        <v>0.5785625471412988</v>
       </c>
       <c r="T4">
-        <v>0.6633867285680229</v>
+        <v>0.8047849651378887</v>
+      </c>
+      <c r="U4">
+        <v>0.7413106015374497</v>
       </c>
       <c r="V4">
-        <v>1.129484231458578</v>
+        <v>0.3637793484505541</v>
       </c>
       <c r="W4">
-        <v>0.3557983823578307</v>
-      </c>
-      <c r="X4">
-        <v>2.40668306849926</v>
-      </c>
-      <c r="Y4">
-        <v>0.6798529813399183</v>
+        <v>0.6377410781917456</v>
+      </c>
+      <c r="Z4">
+        <v>0.8121638735469543</v>
+      </c>
+      <c r="AA4">
+        <v>0.8323586627568349</v>
       </c>
       <c r="AC4">
-        <v>0.5162852333099934</v>
-      </c>
-      <c r="AE4">
-        <v>1.637029762998452</v>
+        <v>1.546888502182493</v>
+      </c>
+      <c r="AD4">
+        <v>0.7481250515331177</v>
       </c>
       <c r="AF4">
-        <v>1.06623234822734</v>
-      </c>
-      <c r="AH4">
-        <v>0.4476514299470536</v>
+        <v>1.950498639697855</v>
+      </c>
+      <c r="AG4">
+        <v>0.9333243007735433</v>
       </c>
       <c r="AI4">
-        <v>0.9341401525785107</v>
+        <v>0.7522888430291363</v>
       </c>
       <c r="AJ4">
-        <v>1.09498145407763</v>
+        <v>0.4476923752956243</v>
+      </c>
+      <c r="AK4">
+        <v>1.014734816424478</v>
       </c>
       <c r="AL4">
-        <v>0.2776699557562551</v>
+        <v>2.311414359839544</v>
+      </c>
+      <c r="AM4">
+        <v>0.2798463579031557</v>
+      </c>
+      <c r="AN4">
+        <v>0.9799087947038935</v>
       </c>
       <c r="AO4">
-        <v>0.9000485356497441</v>
+        <v>0.8026161769439771</v>
       </c>
       <c r="AP4">
-        <v>1.646299511819799</v>
+        <v>0.7863191058241361</v>
       </c>
       <c r="AQ4">
-        <v>2.844793375805581</v>
+        <v>0.8248394066429685</v>
       </c>
       <c r="AR4">
-        <v>1.044211327103768</v>
-      </c>
-      <c r="AS4">
-        <v>0.4221730873193162</v>
+        <v>0.1907640665410656</v>
       </c>
       <c r="AT4">
-        <v>0.5683760887141193</v>
+        <v>1.343078857465943</v>
+      </c>
+      <c r="AU4">
+        <v>0.6193385307240116</v>
       </c>
       <c r="AV4">
-        <v>1.675964042036443</v>
+        <v>0.3593121861511323</v>
       </c>
       <c r="AW4">
-        <v>1.279457199170888</v>
+        <v>1.208890752306603</v>
       </c>
       <c r="AX4">
-        <v>0.7219679812311165</v>
+        <v>0.2795705580058531</v>
+      </c>
+      <c r="AY4">
+        <v>1.736215971849055</v>
       </c>
       <c r="AZ4">
-        <v>1.082101848353273</v>
+        <v>0.3946728141695207</v>
       </c>
       <c r="BA4">
-        <v>1.186451071610505</v>
+        <v>1.02500882906967</v>
       </c>
       <c r="BB4">
-        <v>0.7688657469581165</v>
+        <v>1.480786100838107</v>
       </c>
       <c r="BC4">
-        <v>0.7521679348889787</v>
+        <v>1.08984198464413</v>
       </c>
       <c r="BD4">
-        <v>1.427727261386871</v>
+        <v>0.2385269819434898</v>
       </c>
       <c r="BE4">
-        <v>0.7216632506454107</v>
+        <v>0.8963460142125604</v>
       </c>
       <c r="BF4">
-        <v>0.5681052017989782</v>
-      </c>
-      <c r="BG4">
-        <v>0.6430035282521737</v>
+        <v>0.4385421024575916</v>
       </c>
       <c r="BH4">
-        <v>0.3308705386829309</v>
+        <v>1.653080802036331</v>
       </c>
       <c r="BI4">
-        <v>0.4518290329406922</v>
+        <v>1.366468167307213</v>
       </c>
       <c r="BJ4">
-        <v>0.6703557837718809</v>
+        <v>0.4023136211025495</v>
+      </c>
+      <c r="BK4">
+        <v>0.587105463459318</v>
       </c>
       <c r="BL4">
-        <v>1.041598705794772</v>
+        <v>0.2819478783253894</v>
       </c>
       <c r="BM4">
-        <v>0.342415373743989</v>
+        <v>0.6142296978665345</v>
       </c>
       <c r="BN4">
-        <v>0.8268365139747684</v>
+        <v>1.012794025783814</v>
       </c>
       <c r="BO4">
-        <v>0.6097154360265022</v>
+        <v>0.6984427518442734</v>
+      </c>
+      <c r="BP4">
+        <v>0.9553433475428554</v>
+      </c>
+      <c r="BQ4">
+        <v>0.4460276811124804</v>
       </c>
       <c r="BR4">
-        <v>0.4472410181228568</v>
+        <v>1.087907527187492</v>
       </c>
       <c r="BS4">
-        <v>0.7176939508828167</v>
+        <v>0.2724545678008779</v>
+      </c>
+      <c r="BT4">
+        <v>1.213547516277975</v>
       </c>
       <c r="BU4">
-        <v>0.3549004307032705</v>
+        <v>0.3351508421142512</v>
+      </c>
+      <c r="BV4">
+        <v>0.8856433734259874</v>
+      </c>
+      <c r="BW4">
+        <v>0.9551811397383914</v>
       </c>
       <c r="BX4">
-        <v>0.4753245354983675</v>
+        <v>0.220790455685112</v>
       </c>
       <c r="BY4">
-        <v>1.50529241086352</v>
-      </c>
-      <c r="CA4">
-        <v>0.5195496167374229</v>
+        <v>0.6229385587502587</v>
+      </c>
+      <c r="BZ4">
+        <v>0.6217169153841794</v>
+      </c>
+      <c r="CB4">
+        <v>0.4564574233104238</v>
+      </c>
+      <c r="CC4">
+        <v>0.2039679919996833</v>
+      </c>
+      <c r="CD4">
+        <v>0.261041437559144</v>
       </c>
       <c r="CE4">
-        <v>0.5289556856489566</v>
+        <v>0.6550634599343776</v>
       </c>
       <c r="CF4">
-        <v>0.5085168420197784</v>
+        <v>0.2956727864556059</v>
+      </c>
+      <c r="CG4">
+        <v>0.5406211241154754</v>
       </c>
       <c r="CH4">
-        <v>0.3350004342121367</v>
+        <v>0.7205980849421697</v>
       </c>
       <c r="CI4">
-        <v>0.5570481216544599</v>
+        <v>0.3433316090940879</v>
       </c>
       <c r="CK4">
-        <v>0.4685943897773613</v>
+        <v>0.8790607533483397</v>
       </c>
       <c r="CL4">
-        <v>0.5611234345018014</v>
+        <v>0.9676791770360786</v>
       </c>
       <c r="CM4">
-        <v>0.9715659285338392</v>
+        <v>1.117393536474291</v>
       </c>
       <c r="CN4">
-        <v>0.7704240781283621</v>
+        <v>0.4773613524871289</v>
+      </c>
+      <c r="CO4">
+        <v>0.7330224033263193</v>
       </c>
       <c r="CP4">
-        <v>1.185785234133189</v>
+        <v>0.8305638482499057</v>
+      </c>
+      <c r="CQ4">
+        <v>0.6527657573483039</v>
+      </c>
+      <c r="CR4">
+        <v>0.7146796162063591</v>
       </c>
       <c r="CS4">
-        <v>0.7798883965260622</v>
+        <v>0.3804396795790814</v>
+      </c>
+      <c r="CT4">
+        <v>0.2617859593016605</v>
       </c>
       <c r="CU4">
-        <v>1.435506739722372</v>
+        <v>0.4656227419024254</v>
+      </c>
+      <c r="CV4">
+        <v>0.8087833457227651</v>
+      </c>
+      <c r="CW4">
+        <v>0.796767249189642</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3303284034210079</v>
+        <v>0.287142884230446</v>
       </c>
       <c r="C5">
-        <v>0.5684236198095777</v>
+        <v>1.302403442607236</v>
       </c>
       <c r="D5">
-        <v>0.5366325156357694</v>
-      </c>
-      <c r="F5">
-        <v>0.6368808370422608</v>
-      </c>
-      <c r="G5">
-        <v>0.5360471992052959</v>
+        <v>0.9453706583048378</v>
+      </c>
+      <c r="E5">
+        <v>0.2836000330526117</v>
       </c>
       <c r="H5">
-        <v>0.3243218210334782</v>
+        <v>2.972094269877568</v>
       </c>
       <c r="I5">
-        <v>1.711121180894892</v>
+        <v>0.3296327835606041</v>
+      </c>
+      <c r="J5">
+        <v>0.5273948886964605</v>
+      </c>
+      <c r="K5">
+        <v>0.566353729265314</v>
+      </c>
+      <c r="L5">
+        <v>0.7757228027412146</v>
+      </c>
+      <c r="M5">
+        <v>0.3745833815306268</v>
       </c>
       <c r="N5">
-        <v>0.6683646105850104</v>
+        <v>0.2747333231977104</v>
       </c>
       <c r="O5">
-        <v>0.3016116362850054</v>
-      </c>
-      <c r="S5">
-        <v>0.7866818106023232</v>
-      </c>
-      <c r="T5">
-        <v>0.8933262965677095</v>
+        <v>1.774853904791722</v>
+      </c>
+      <c r="P5">
+        <v>0.8685512271194098</v>
+      </c>
+      <c r="Q5">
+        <v>0.6358425491240655</v>
+      </c>
+      <c r="R5">
+        <v>0.2686978522753959</v>
+      </c>
+      <c r="U5">
+        <v>0.9697594287724987</v>
       </c>
       <c r="V5">
-        <v>1.01403989475163</v>
+        <v>0.4507572871742804</v>
       </c>
       <c r="W5">
-        <v>0.3381258032743595</v>
-      </c>
-      <c r="X5">
-        <v>2.624362116625645</v>
-      </c>
-      <c r="Y5">
-        <v>0.6166638090238445</v>
+        <v>0.5778935835222904</v>
       </c>
       <c r="Z5">
-        <v>0.3977374047472473</v>
-      </c>
-      <c r="AB5">
-        <v>0.7426762023592984</v>
+        <v>0.62163826806244</v>
+      </c>
+      <c r="AA5">
+        <v>0.9012180518685297</v>
       </c>
       <c r="AC5">
-        <v>0.5186745588422096</v>
-      </c>
-      <c r="AD5">
-        <v>0.3672470917047038</v>
-      </c>
-      <c r="AE5">
-        <v>1.351105099466807</v>
-      </c>
-      <c r="AH5">
-        <v>0.4125729497229073</v>
+        <v>0.68773394086321</v>
+      </c>
+      <c r="AF5">
+        <v>1.689909753865156</v>
+      </c>
+      <c r="AG5">
+        <v>0.9896936988259372</v>
       </c>
       <c r="AI5">
-        <v>0.9401761805662072</v>
+        <v>0.7158854567734525</v>
       </c>
       <c r="AJ5">
-        <v>0.840362089964637</v>
+        <v>0.4313258620151569</v>
+      </c>
+      <c r="AK5">
+        <v>0.6615693889746715</v>
       </c>
       <c r="AL5">
-        <v>0.3278678464131461</v>
-      </c>
-      <c r="AO5">
-        <v>0.5650444230507525</v>
+        <v>2.291386380109472</v>
+      </c>
+      <c r="AM5">
+        <v>0.3276758024889385</v>
+      </c>
+      <c r="AN5">
+        <v>0.659746031689419</v>
       </c>
       <c r="AP5">
-        <v>1.432343888381063</v>
+        <v>0.7922814340828914</v>
       </c>
       <c r="AQ5">
-        <v>3.030895069154293</v>
+        <v>0.6887676815968709</v>
       </c>
       <c r="AR5">
-        <v>0.8363734676457573</v>
+        <v>0.1754951407205221</v>
       </c>
       <c r="AT5">
-        <v>0.8195530295774011</v>
+        <v>1.035010713961729</v>
+      </c>
+      <c r="AU5">
+        <v>0.7993344064828524</v>
       </c>
       <c r="AV5">
-        <v>1.428205663542834</v>
+        <v>0.3674536623137832</v>
       </c>
       <c r="AW5">
-        <v>1.139580045135073</v>
+        <v>1.097529324889163</v>
       </c>
       <c r="AX5">
-        <v>0.5503908660150375</v>
+        <v>0.2060315011565866</v>
       </c>
       <c r="AY5">
-        <v>0.7367553122809332</v>
+        <v>1.853385108510138</v>
       </c>
       <c r="AZ5">
-        <v>0.8791967219546112</v>
+        <v>0.3208453416578019</v>
       </c>
       <c r="BA5">
-        <v>1.15048739225535</v>
+        <v>1.184816978022921</v>
       </c>
       <c r="BB5">
-        <v>0.8824196593428592</v>
+        <v>1.137498488736542</v>
       </c>
       <c r="BC5">
-        <v>0.7385759970226257</v>
+        <v>0.8000854296441603</v>
       </c>
       <c r="BD5">
-        <v>1.042332822534328</v>
+        <v>0.3303321427169633</v>
       </c>
       <c r="BE5">
-        <v>0.5838934396466635</v>
+        <v>0.7176717020406581</v>
       </c>
       <c r="BF5">
-        <v>0.8257204773089236</v>
+        <v>0.3283572226596136</v>
+      </c>
+      <c r="BG5">
+        <v>0.3217528819930225</v>
       </c>
       <c r="BH5">
-        <v>0.3799721436338775</v>
+        <v>1.065266439335927</v>
       </c>
       <c r="BI5">
-        <v>0.3405385313555347</v>
+        <v>1.079231677596379</v>
       </c>
       <c r="BJ5">
-        <v>0.5620422894838717</v>
+        <v>0.4786163765328512</v>
+      </c>
+      <c r="BK5">
+        <v>0.7439435470446988</v>
       </c>
       <c r="BL5">
-        <v>0.9615402283581208</v>
+        <v>0.3932962173475817</v>
+      </c>
+      <c r="BM5">
+        <v>0.6347779931686909</v>
+      </c>
+      <c r="BN5">
+        <v>0.8565492426111294</v>
+      </c>
+      <c r="BO5">
+        <v>0.781273770481509</v>
       </c>
       <c r="BP5">
-        <v>0.7282946141817893</v>
+        <v>0.8036922502724202</v>
+      </c>
+      <c r="BQ5">
+        <v>0.4902531579429025</v>
       </c>
       <c r="BR5">
-        <v>0.4820874175127158</v>
+        <v>0.9297408583177421</v>
       </c>
       <c r="BS5">
-        <v>0.7370848863270268</v>
+        <v>0.3944238205699935</v>
+      </c>
+      <c r="BT5">
+        <v>1.396594208004775</v>
       </c>
       <c r="BU5">
-        <v>0.4031035414902587</v>
+        <v>0.4757426349762724</v>
       </c>
       <c r="BV5">
-        <v>0.1503394195960397</v>
+        <v>0.537788302486622</v>
+      </c>
+      <c r="BW5">
+        <v>0.7057250552326153</v>
       </c>
       <c r="BX5">
-        <v>0.6035198330593027</v>
+        <v>0.2643828857403525</v>
       </c>
       <c r="BY5">
-        <v>0.8624091517969366</v>
-      </c>
-      <c r="CA5">
-        <v>0.5585787734515802</v>
+        <v>0.4185127152160003</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8516725772045425</v>
+      </c>
+      <c r="CB5">
+        <v>0.4532331941993989</v>
       </c>
       <c r="CC5">
-        <v>0.269661233590302</v>
+        <v>0.2765610165828237</v>
       </c>
       <c r="CD5">
-        <v>1.089954419290206</v>
+        <v>0.3250722819319203</v>
       </c>
       <c r="CE5">
-        <v>0.5518337991587682</v>
+        <v>0.5368561106778379</v>
+      </c>
+      <c r="CF5">
+        <v>0.4229018693342765</v>
+      </c>
+      <c r="CG5">
+        <v>0.4992573880279218</v>
       </c>
       <c r="CH5">
-        <v>0.3199371988760565</v>
+        <v>0.5807397244270601</v>
+      </c>
+      <c r="CI5">
+        <v>0.4007083153927081</v>
       </c>
       <c r="CK5">
-        <v>0.4915374135430375</v>
+        <v>0.6086527265877203</v>
+      </c>
+      <c r="CL5">
+        <v>0.7962163223279569</v>
       </c>
       <c r="CM5">
-        <v>0.8614391315965065</v>
+        <v>0.9330038562978616</v>
       </c>
       <c r="CN5">
-        <v>0.6598051299932903</v>
+        <v>0.3720617835808323</v>
+      </c>
+      <c r="CO5">
+        <v>0.8559933633050821</v>
       </c>
       <c r="CP5">
-        <v>0.8581236444883154</v>
+        <v>0.6050585030479796</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7604828878393255</v>
+      </c>
+      <c r="CR5">
+        <v>0.4826878948242866</v>
       </c>
       <c r="CS5">
-        <v>0.5885188175143465</v>
+        <v>0.2634638647219673</v>
+      </c>
+      <c r="CT5">
+        <v>0.2495000540437546</v>
       </c>
       <c r="CU5">
-        <v>1.440517106384305</v>
+        <v>0.3856926544016375</v>
+      </c>
+      <c r="CV5">
+        <v>0.7897165869536208</v>
       </c>
       <c r="CW5">
-        <v>0.6427114433690578</v>
+        <v>0.4627355468687711</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3451048122123294</v>
-      </c>
-      <c r="C6">
-        <v>0.6664211390514868</v>
+        <v>0.3378189671684756</v>
       </c>
       <c r="D6">
-        <v>0.7975123217339952</v>
+        <v>1.302577064395475</v>
+      </c>
+      <c r="E6">
+        <v>0.2920052257231092</v>
       </c>
       <c r="F6">
-        <v>0.6896465705185779</v>
-      </c>
-      <c r="G6">
-        <v>1.040271292877928</v>
+        <v>0.6875058174484692</v>
       </c>
       <c r="H6">
-        <v>0.3802303572146771</v>
+        <v>2.574917742331254</v>
       </c>
       <c r="I6">
-        <v>2.019450692691395</v>
+        <v>0.5190629802468978</v>
       </c>
       <c r="J6">
-        <v>0.8138735497061794</v>
+        <v>0.5975894668644428</v>
+      </c>
+      <c r="K6">
+        <v>0.6211173622084211</v>
+      </c>
+      <c r="L6">
+        <v>0.852415441991491</v>
       </c>
       <c r="M6">
-        <v>0.7591586174156035</v>
+        <v>0.3861312613846138</v>
       </c>
       <c r="N6">
-        <v>1.014549106966911</v>
+        <v>0.3504004375069518</v>
+      </c>
+      <c r="O6">
+        <v>2.072723808520819</v>
+      </c>
+      <c r="P6">
+        <v>0.7930111878402822</v>
       </c>
       <c r="Q6">
-        <v>0.8170365875535121</v>
-      </c>
-      <c r="S6">
-        <v>0.6712841825967066</v>
-      </c>
-      <c r="T6">
-        <v>1.076265561988512</v>
+        <v>0.9781928532585308</v>
+      </c>
+      <c r="V6">
+        <v>0.9139088415540565</v>
       </c>
       <c r="W6">
-        <v>0.3904094482020471</v>
-      </c>
-      <c r="X6">
-        <v>2.280720376597877</v>
+        <v>0.8904690480227229</v>
       </c>
       <c r="Y6">
-        <v>0.6938187092405562</v>
+        <v>1.201819627395291</v>
+      </c>
+      <c r="Z6">
+        <v>0.5785604046349632</v>
       </c>
       <c r="AA6">
-        <v>1.815031703669298</v>
-      </c>
-      <c r="AB6">
-        <v>0.921976405869169</v>
+        <v>1.330382234141961</v>
       </c>
       <c r="AC6">
-        <v>0.5141612106627649</v>
+        <v>0.4104226910129933</v>
       </c>
       <c r="AD6">
-        <v>0.4439274766301376</v>
+        <v>1.131370570153772</v>
       </c>
       <c r="AE6">
-        <v>1.638903079498541</v>
+        <v>2.299361370362622</v>
+      </c>
+      <c r="AF6">
+        <v>1.975121690596005</v>
       </c>
       <c r="AG6">
-        <v>0.6499577627761381</v>
+        <v>2.016039873244729</v>
       </c>
       <c r="AH6">
-        <v>0.496478139616814</v>
+        <v>1.956481127480354</v>
+      </c>
+      <c r="AI6">
+        <v>0.8413163638795588</v>
       </c>
       <c r="AJ6">
-        <v>1.186591123486634</v>
+        <v>0.4756307579254165</v>
       </c>
       <c r="AK6">
-        <v>1.018980014916117</v>
+        <v>1.066223318171216</v>
+      </c>
+      <c r="AL6">
+        <v>2.714446542419345</v>
       </c>
       <c r="AM6">
-        <v>1.971323500307602</v>
+        <v>0.4690388087839235</v>
       </c>
       <c r="AN6">
-        <v>1.297313910070498</v>
+        <v>0.9504027276290811</v>
       </c>
       <c r="AO6">
-        <v>0.7798729434168483</v>
+        <v>1.054778335261954</v>
       </c>
       <c r="AP6">
-        <v>1.663532703323881</v>
+        <v>0.7138821698081013</v>
       </c>
       <c r="AQ6">
-        <v>3.362362838931923</v>
+        <v>0.8105031778903303</v>
       </c>
       <c r="AR6">
-        <v>1.08233410857298</v>
+        <v>0.2302258279848798</v>
+      </c>
+      <c r="AS6">
+        <v>2.477613013245664</v>
+      </c>
+      <c r="AT6">
+        <v>1.168409000223054</v>
+      </c>
+      <c r="AU6">
+        <v>0.7528138436921603</v>
       </c>
       <c r="AV6">
-        <v>1.588475955467171</v>
+        <v>0.3982470505422104</v>
       </c>
       <c r="AW6">
-        <v>0.888352689832727</v>
+        <v>2.450209523943091</v>
       </c>
       <c r="AX6">
-        <v>0.6431616113050527</v>
+        <v>0.2583440723605375</v>
+      </c>
+      <c r="AY6">
+        <v>2.68741554745663</v>
+      </c>
+      <c r="AZ6">
+        <v>0.2825163408971268</v>
       </c>
       <c r="BA6">
-        <v>1.184678665139361</v>
+        <v>0.8724880123872726</v>
       </c>
       <c r="BB6">
-        <v>0.8209660309480347</v>
+        <v>1.308116811368909</v>
+      </c>
+      <c r="BC6">
+        <v>0.9663908302075231</v>
       </c>
       <c r="BD6">
-        <v>1.184625894701095</v>
+        <v>0.244800540952045</v>
       </c>
       <c r="BE6">
-        <v>0.6658333769119591</v>
+        <v>0.7950893673683076</v>
       </c>
       <c r="BF6">
-        <v>0.8405113231292718</v>
+        <v>0.4351516044190857</v>
       </c>
       <c r="BG6">
-        <v>0.7596388056654446</v>
+        <v>0.4768006693086029</v>
+      </c>
+      <c r="BH6">
+        <v>0.9233633102703944</v>
       </c>
       <c r="BI6">
-        <v>0.4245043638829459</v>
+        <v>1.10545479608063</v>
       </c>
       <c r="BJ6">
-        <v>0.8132846878816025</v>
+        <v>0.3729421742981345</v>
+      </c>
+      <c r="BK6">
+        <v>0.831134125299428</v>
       </c>
       <c r="BL6">
-        <v>1.141644887227358</v>
+        <v>0.3124442443374064</v>
+      </c>
+      <c r="BM6">
+        <v>0.6877084458089309</v>
+      </c>
+      <c r="BN6">
+        <v>1.201415338595734</v>
       </c>
       <c r="BO6">
-        <v>0.5934289652699321</v>
+        <v>0.7556027440800341</v>
+      </c>
+      <c r="BP6">
+        <v>1.06876851628125</v>
+      </c>
+      <c r="BQ6">
+        <v>0.3933102221847805</v>
       </c>
       <c r="BR6">
-        <v>0.51704101900636</v>
+        <v>0.8476581540790692</v>
       </c>
       <c r="BS6">
-        <v>0.8244163371949151</v>
+        <v>0.4307280304365191</v>
+      </c>
+      <c r="BT6">
+        <v>1.308336657294392</v>
       </c>
       <c r="BU6">
-        <v>0.4223164752920265</v>
+        <v>0.4826960768210335</v>
       </c>
       <c r="BV6">
-        <v>0.1673400075555188</v>
+        <v>0.6761736559751297</v>
+      </c>
+      <c r="BW6">
+        <v>1.041273414977011</v>
       </c>
       <c r="BX6">
-        <v>0.5955167072079055</v>
+        <v>0.2308060662441789</v>
       </c>
       <c r="BY6">
-        <v>1.631338472314722</v>
+        <v>0.6101478565078298</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9503917958822623</v>
       </c>
       <c r="CA6">
-        <v>0.6299435236984332</v>
+        <v>0.605252756344819</v>
+      </c>
+      <c r="CB6">
+        <v>0.6019133798668108</v>
       </c>
       <c r="CC6">
-        <v>0.538699487871296</v>
+        <v>0.4034225980926956</v>
       </c>
       <c r="CD6">
-        <v>0.8465080855442184</v>
+        <v>0.2824525438723187</v>
       </c>
       <c r="CE6">
-        <v>0.6218834554061859</v>
+        <v>0.530826475142215</v>
       </c>
       <c r="CF6">
-        <v>0.5938637897145205</v>
+        <v>0.5325653698255839</v>
+      </c>
+      <c r="CG6">
+        <v>0.7130759183920972</v>
       </c>
       <c r="CH6">
-        <v>0.5485225199412165</v>
+        <v>0.7953415570064533</v>
       </c>
       <c r="CI6">
-        <v>0.9042843450299998</v>
+        <v>0.3549921049784116</v>
       </c>
       <c r="CJ6">
-        <v>0.7713841340093883</v>
+        <v>0.5746110070218657</v>
       </c>
       <c r="CK6">
-        <v>0.672192792521711</v>
+        <v>0.6444056008507323</v>
       </c>
       <c r="CL6">
-        <v>0.502825667913641</v>
+        <v>0.9521615447755075</v>
       </c>
       <c r="CM6">
-        <v>0.7161929330441601</v>
+        <v>1.018217755923925</v>
       </c>
       <c r="CN6">
-        <v>0.8789811721798215</v>
+        <v>0.4934769211557434</v>
+      </c>
+      <c r="CO6">
+        <v>0.7433013238054517</v>
       </c>
       <c r="CP6">
-        <v>0.7550577247654916</v>
+        <v>0.6967585497469482</v>
       </c>
       <c r="CQ6">
-        <v>0.4228107987090624</v>
+        <v>0.6297745927050059</v>
+      </c>
+      <c r="CR6">
+        <v>0.5663385780332689</v>
       </c>
       <c r="CS6">
-        <v>0.6871298049923714</v>
+        <v>0.4334611373493736</v>
       </c>
       <c r="CT6">
-        <v>0.4125467744151147</v>
+        <v>0.3454322112448854</v>
+      </c>
+      <c r="CU6">
+        <v>0.707707284558437</v>
+      </c>
+      <c r="CV6">
+        <v>0.6684139409853743</v>
+      </c>
+      <c r="CW6">
+        <v>0.6518977343784595</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.3828541209735858</v>
-      </c>
       <c r="C7">
-        <v>0.6380673339920568</v>
+        <v>1.601663722783237</v>
       </c>
       <c r="D7">
-        <v>0.5605816500052768</v>
+        <v>1.084274072762254</v>
+      </c>
+      <c r="E7">
+        <v>0.3122976889191604</v>
       </c>
       <c r="F7">
-        <v>0.7298407012474618</v>
-      </c>
-      <c r="G7">
-        <v>0.7367940070227503</v>
+        <v>0.4907477791991378</v>
       </c>
       <c r="H7">
-        <v>0.3972593838333455</v>
-      </c>
-      <c r="I7">
-        <v>1.493046359230201</v>
+        <v>2.1821115892801</v>
+      </c>
+      <c r="J7">
+        <v>0.543044636609136</v>
+      </c>
+      <c r="K7">
+        <v>0.6060600738928441</v>
       </c>
       <c r="L7">
-        <v>0.6625942498754746</v>
+        <v>0.7314694063121291</v>
+      </c>
+      <c r="M7">
+        <v>0.4185517940113856</v>
       </c>
       <c r="N7">
-        <v>0.5682747579559169</v>
-      </c>
-      <c r="R7">
-        <v>0.6504314179891659</v>
+        <v>0.35901030364435</v>
+      </c>
+      <c r="O7">
+        <v>1.481002532907203</v>
+      </c>
+      <c r="P7">
+        <v>0.7782509595564296</v>
+      </c>
+      <c r="Q7">
+        <v>0.5360905739327697</v>
       </c>
       <c r="T7">
-        <v>0.9756378717489917</v>
+        <v>1.065937727583492</v>
+      </c>
+      <c r="U7">
+        <v>0.9326130335332521</v>
       </c>
       <c r="V7">
-        <v>1.197617721481843</v>
-      </c>
-      <c r="X7">
-        <v>2.034406501894152</v>
+        <v>0.6455862228175006</v>
+      </c>
+      <c r="W7">
+        <v>0.5242476445178698</v>
       </c>
       <c r="Y7">
-        <v>0.7587857520651223</v>
+        <v>0.7998449637364198</v>
       </c>
       <c r="Z7">
-        <v>0.5173923485696409</v>
+        <v>0.8029227022691356</v>
       </c>
       <c r="AA7">
-        <v>1.111457374401704</v>
+        <v>0.6267943516139369</v>
       </c>
       <c r="AC7">
-        <v>0.545060978290059</v>
-      </c>
-      <c r="AD7">
-        <v>0.4481520122588004</v>
+        <v>0.7677130105609348</v>
       </c>
       <c r="AE7">
-        <v>1.186793920008254</v>
+        <v>1.391695468838524</v>
+      </c>
+      <c r="AF7">
+        <v>1.709253992414387</v>
+      </c>
+      <c r="AG7">
+        <v>1.302112825316579</v>
       </c>
       <c r="AH7">
-        <v>0.4755368626617297</v>
+        <v>1.226401191096536</v>
       </c>
       <c r="AI7">
-        <v>0.8321534547394764</v>
+        <v>0.5984283611853796</v>
       </c>
       <c r="AJ7">
-        <v>0.7694911964542835</v>
+        <v>0.4419256304300592</v>
       </c>
       <c r="AK7">
-        <v>1.182380904883906</v>
+        <v>0.6174046267325205</v>
       </c>
       <c r="AL7">
-        <v>0.3337184790548753</v>
+        <v>2.585840206202101</v>
       </c>
       <c r="AM7">
-        <v>1.50296907265713</v>
+        <v>0.4777239018997804</v>
       </c>
       <c r="AO7">
-        <v>0.4481087612751669</v>
+        <v>0.5110840523845475</v>
       </c>
       <c r="AP7">
-        <v>1.311884932952545</v>
+        <v>0.7729301665459336</v>
       </c>
       <c r="AQ7">
-        <v>3.336487316262481</v>
+        <v>0.928379392867734</v>
       </c>
       <c r="AR7">
-        <v>0.8797093691978284</v>
+        <v>0.2546626318323157</v>
+      </c>
+      <c r="AS7">
+        <v>2.004493402020831</v>
       </c>
       <c r="AT7">
-        <v>0.5420486601564271</v>
+        <v>1.09483041704899</v>
+      </c>
+      <c r="AU7">
+        <v>0.7689964071908344</v>
       </c>
       <c r="AV7">
-        <v>1.577287630129974</v>
+        <v>0.3810069971572424</v>
       </c>
       <c r="AW7">
-        <v>0.9175666027156441</v>
+        <v>2.266177468836386</v>
       </c>
       <c r="AX7">
-        <v>0.3266200522374875</v>
+        <v>0.3313583812915697</v>
+      </c>
+      <c r="AY7">
+        <v>1.953565694005696</v>
       </c>
       <c r="AZ7">
-        <v>0.8922926140315535</v>
+        <v>0.3607777157265227</v>
       </c>
       <c r="BA7">
-        <v>1.249635600458189</v>
+        <v>1.049221344253645</v>
       </c>
       <c r="BB7">
-        <v>0.6587004338668243</v>
+        <v>1.165388931637195</v>
       </c>
       <c r="BC7">
-        <v>0.7190841829803746</v>
+        <v>0.6539193649361238</v>
+      </c>
+      <c r="BD7">
+        <v>0.4001581933838658</v>
       </c>
       <c r="BE7">
-        <v>0.605638265090235</v>
+        <v>0.8594828187340575</v>
       </c>
       <c r="BF7">
-        <v>0.6598853407719812</v>
+        <v>0.3511053359138223</v>
       </c>
       <c r="BG7">
-        <v>0.6341480854180044</v>
+        <v>0.4533282570415352</v>
+      </c>
+      <c r="BH7">
+        <v>0.8713692143302944</v>
       </c>
       <c r="BI7">
-        <v>0.4028610882762829</v>
+        <v>1.218119126512278</v>
       </c>
       <c r="BJ7">
-        <v>0.6002782185252795</v>
+        <v>0.4416800797296587</v>
+      </c>
+      <c r="BK7">
+        <v>0.5444078272904977</v>
       </c>
       <c r="BL7">
-        <v>1.079180598364745</v>
+        <v>0.3239207845243028</v>
       </c>
       <c r="BM7">
-        <v>0.3655315495718155</v>
+        <v>0.4033591697691726</v>
+      </c>
+      <c r="BN7">
+        <v>0.7521448895376981</v>
+      </c>
+      <c r="BO7">
+        <v>0.8671009562131965</v>
+      </c>
+      <c r="BP7">
+        <v>0.5761692732872256</v>
+      </c>
+      <c r="BQ7">
+        <v>0.4656333911596351</v>
       </c>
       <c r="BR7">
-        <v>0.5208127526361617</v>
+        <v>0.8555177184433649</v>
       </c>
       <c r="BS7">
-        <v>0.7988007625841602</v>
+        <v>0.308267395989723</v>
       </c>
       <c r="BT7">
-        <v>0.2341602527903681</v>
+        <v>1.186558088131175</v>
       </c>
       <c r="BU7">
-        <v>0.3356300278573182</v>
+        <v>0.4049853411387216</v>
       </c>
       <c r="BV7">
-        <v>0.181858713163172</v>
+        <v>0.5532863639180589</v>
       </c>
       <c r="BW7">
-        <v>0.4666053188800813</v>
+        <v>0.7503815631281349</v>
       </c>
       <c r="BX7">
-        <v>0.5517881054807992</v>
-      </c>
-      <c r="CA7">
-        <v>0.5662558298668268</v>
+        <v>0.265664553211862</v>
+      </c>
+      <c r="BY7">
+        <v>0.4646874941455377</v>
+      </c>
+      <c r="BZ7">
+        <v>1.065322975782722</v>
       </c>
       <c r="CB7">
-        <v>0.601292321204001</v>
+        <v>0.3608233189225971</v>
       </c>
       <c r="CC7">
-        <v>0.454060013479734</v>
+        <v>0.2337719886339241</v>
       </c>
       <c r="CD7">
-        <v>0.8458184140761905</v>
+        <v>0.3326259422601073</v>
       </c>
       <c r="CE7">
-        <v>0.4880339204975594</v>
+        <v>0.6246254067250019</v>
       </c>
       <c r="CF7">
-        <v>0.4583554415568328</v>
+        <v>0.3271651602337376</v>
       </c>
       <c r="CG7">
-        <v>0.8298258893145024</v>
+        <v>0.5229056346527179</v>
       </c>
       <c r="CH7">
-        <v>0.3058791453204857</v>
-      </c>
-      <c r="CJ7">
-        <v>0.7231297302003391</v>
+        <v>0.8196396312663279</v>
+      </c>
+      <c r="CI7">
+        <v>0.2929223498158811</v>
       </c>
       <c r="CK7">
-        <v>0.4684617250013848</v>
+        <v>0.8067810084664135</v>
+      </c>
+      <c r="CL7">
+        <v>0.8808343996636601</v>
       </c>
       <c r="CM7">
-        <v>0.8198136716373285</v>
+        <v>0.930623588568697</v>
       </c>
       <c r="CN7">
-        <v>0.8644708890253627</v>
+        <v>0.4153709357767474</v>
+      </c>
+      <c r="CO7">
+        <v>0.69340776019523</v>
       </c>
       <c r="CP7">
-        <v>0.9585695877458769</v>
+        <v>0.7377730227643666</v>
       </c>
       <c r="CQ7">
-        <v>0.3832831625989789</v>
+        <v>0.5494211208743766</v>
+      </c>
+      <c r="CR7">
+        <v>0.5595099620590226</v>
       </c>
       <c r="CS7">
-        <v>0.6475054923940966</v>
+        <v>0.3524375227518734</v>
+      </c>
+      <c r="CT7">
+        <v>0.3942447566384044</v>
+      </c>
+      <c r="CU7">
+        <v>0.3682843397367848</v>
+      </c>
+      <c r="CV7">
+        <v>0.5775341294370807</v>
       </c>
       <c r="CW7">
-        <v>0.7075677409924861</v>
+        <v>0.7996135279449745</v>
       </c>
     </row>
   </sheetData>
